--- a/primer_schemes/HTLV1/V1/HTLV1.scheme.xlsx
+++ b/primer_schemes/HTLV1/V1/HTLV1.scheme.xlsx
@@ -3029,22 +3029,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B4FDBC-3D6B-416C-B7CC-3A047F2EE990}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56bd86cd-aee7-4d84-9328-0256d48ce484"/>
-    <ds:schemaRef ds:uri="d89b8d59-050a-4503-a522-eb5bc4a69315"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3AB3770-73A5-4B1D-A28B-B0A3CB07B190}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
